--- a/iris.xlsx
+++ b/iris.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdesai2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A65DFE-6E22-4F36-9D87-3DBEC9DF3003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62903ED6-D43B-403F-A661-39615C5FA8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,6 +59,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,12 +73,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -86,7 +102,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -393,9 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
